--- a/ApolloQA/Data/RatingManual/GA/OR00003.BaseRateFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00003.BaseRateFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00003.BaseRateFactors" sheetId="1" r:id="Rfe0448c43b3345bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00003.BaseRateFactors" sheetId="1" r:id="R11ca56994aed4105"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,66 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Base Rate Factor</x:v>
+        <x:v>Predominant Rating Group</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Predominant Rating Group Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>0.0300</x:v>
+        <x:v>All Other Trucks</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Livery</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Not For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Private Passenger Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Special Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
